--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H2">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I2">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J2">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>3.773181</v>
       </c>
       <c r="O2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q2">
-        <v>26.91091341202433</v>
+        <v>19.486472532708</v>
       </c>
       <c r="R2">
-        <v>242.198220708219</v>
+        <v>175.378252794372</v>
       </c>
       <c r="S2">
-        <v>0.0262078513498582</v>
+        <v>0.01078491608603703</v>
       </c>
       <c r="T2">
-        <v>0.02620785134985819</v>
+        <v>0.01078491608603703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H3">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I3">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J3">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N3">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q3">
-        <v>1.959759408713555</v>
+        <v>3.822346714032</v>
       </c>
       <c r="R3">
-        <v>17.637834678422</v>
+        <v>34.401120426288</v>
       </c>
       <c r="S3">
-        <v>0.001908559641907276</v>
+        <v>0.002115502869664103</v>
       </c>
       <c r="T3">
-        <v>0.001908559641907275</v>
+        <v>0.002115502869664103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H4">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I4">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J4">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N4">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O4">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P4">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q4">
-        <v>45.19688271646022</v>
+        <v>73.47080630628</v>
       </c>
       <c r="R4">
-        <v>406.7719444481419</v>
+        <v>661.23725675652</v>
       </c>
       <c r="S4">
-        <v>0.04401608988793002</v>
+        <v>0.04066289983765445</v>
       </c>
       <c r="T4">
-        <v>0.04401608988793001</v>
+        <v>0.04066289983765444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>392.604462</v>
       </c>
       <c r="I5">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J5">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,10 +747,10 @@
         <v>3.773181</v>
       </c>
       <c r="O5">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P5">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q5">
         <v>164.596410725958</v>
@@ -759,10 +759,10 @@
         <v>1481.367696533622</v>
       </c>
       <c r="S5">
-        <v>0.1602962411189899</v>
+        <v>0.09109696353522902</v>
       </c>
       <c r="T5">
-        <v>0.1602962411189899</v>
+        <v>0.091096963535229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>392.604462</v>
       </c>
       <c r="I6">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J6">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N6">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O6">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P6">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q6">
-        <v>11.986563206604</v>
+        <v>32.286220537032</v>
       </c>
       <c r="R6">
-        <v>107.879068859436</v>
+        <v>290.575984833288</v>
       </c>
       <c r="S6">
-        <v>0.01167340780688597</v>
+        <v>0.01786902060610075</v>
       </c>
       <c r="T6">
-        <v>0.01167340780688597</v>
+        <v>0.01786902060610075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>392.604462</v>
       </c>
       <c r="I7">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J7">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N7">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O7">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P7">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q7">
-        <v>276.439694083644</v>
+        <v>620.58594703878</v>
       </c>
       <c r="R7">
-        <v>2487.957246752796</v>
+        <v>5585.27352334902</v>
       </c>
       <c r="S7">
-        <v>0.2692175586469412</v>
+        <v>0.3434673644371978</v>
       </c>
       <c r="T7">
-        <v>0.2692175586469411</v>
+        <v>0.3434673644371977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H8">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I8">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J8">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>3.773181</v>
       </c>
       <c r="O8">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P8">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q8">
-        <v>87.20632692611933</v>
+        <v>84.06046451812099</v>
       </c>
       <c r="R8">
-        <v>784.856942335074</v>
+        <v>756.5441806630889</v>
       </c>
       <c r="S8">
-        <v>0.08492801481148049</v>
+        <v>0.04652381566030113</v>
       </c>
       <c r="T8">
-        <v>0.08492801481148049</v>
+        <v>0.04652381566030112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H9">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I9">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J9">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N9">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O9">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P9">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q9">
-        <v>6.350710474823555</v>
+        <v>16.488784195884</v>
       </c>
       <c r="R9">
-        <v>57.156394273412</v>
+        <v>148.399057762956</v>
       </c>
       <c r="S9">
-        <v>0.006184794753781753</v>
+        <v>0.009125825806332829</v>
       </c>
       <c r="T9">
-        <v>0.006184794753781753</v>
+        <v>0.009125825806332829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H10">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I10">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J10">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N10">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O10">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P10">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q10">
-        <v>146.4630378711702</v>
+        <v>316.93730593161</v>
       </c>
       <c r="R10">
-        <v>1318.167340840532</v>
+        <v>2852.43575338449</v>
       </c>
       <c r="S10">
-        <v>0.1426366123663856</v>
+        <v>0.1754110315897203</v>
       </c>
       <c r="T10">
-        <v>0.1426366123663855</v>
+        <v>0.1754110315897203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H11">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I11">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J11">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.773181</v>
       </c>
       <c r="O11">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P11">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q11">
-        <v>94.36246696634166</v>
+        <v>95.659212850305</v>
       </c>
       <c r="R11">
-        <v>849.2622026970751</v>
+        <v>860.9329156527451</v>
       </c>
       <c r="S11">
-        <v>0.09189719685080568</v>
+        <v>0.05294321903131662</v>
       </c>
       <c r="T11">
-        <v>0.09189719685080568</v>
+        <v>0.05294321903131662</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H12">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I12">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J12">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N12">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O12">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P12">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q12">
-        <v>6.871848964594444</v>
+        <v>18.76392339822</v>
       </c>
       <c r="R12">
-        <v>61.84664068135</v>
+        <v>168.87531058398</v>
       </c>
       <c r="S12">
-        <v>0.006692318220692483</v>
+        <v>0.01038501652646247</v>
       </c>
       <c r="T12">
-        <v>0.006692318220692483</v>
+        <v>0.01038501652646247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H13">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I13">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J13">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N13">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O13">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P13">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q13">
-        <v>158.4817760369278</v>
+        <v>360.66863753505</v>
       </c>
       <c r="R13">
-        <v>1426.33598433235</v>
+        <v>3246.01773781545</v>
       </c>
       <c r="S13">
-        <v>0.1543413545443415</v>
+        <v>0.1996144240139836</v>
       </c>
       <c r="T13">
-        <v>0.1543413545443415</v>
+        <v>0.1996144240139836</v>
       </c>
     </row>
   </sheetData>
